--- a/data/pca/factorExposure/factorExposure_2018-04-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01425709022778243</v>
+        <v>0.01445391801616114</v>
       </c>
       <c r="C2">
-        <v>-0.02842995519344106</v>
+        <v>0.005827906622847405</v>
       </c>
       <c r="D2">
-        <v>-0.02808171563173525</v>
+        <v>0.03795905181173567</v>
       </c>
       <c r="E2">
-        <v>0.006482179754979725</v>
+        <v>0.01889838849235686</v>
       </c>
       <c r="F2">
-        <v>-0.09477956451237954</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.005526755721425357</v>
+      </c>
+      <c r="G2">
+        <v>0.03072784635484824</v>
+      </c>
+      <c r="H2">
+        <v>0.04733937439451373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08987445595768315</v>
+        <v>0.06685041368463925</v>
       </c>
       <c r="C3">
-        <v>-0.04573175940168002</v>
+        <v>0.0556005823917816</v>
       </c>
       <c r="D3">
-        <v>-0.01738948743293222</v>
+        <v>0.05668282345231671</v>
       </c>
       <c r="E3">
-        <v>0.0533121044158029</v>
+        <v>0.008129216616303839</v>
       </c>
       <c r="F3">
-        <v>-0.3380897125664966</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.05402208576313391</v>
+      </c>
+      <c r="G3">
+        <v>0.1385175523181096</v>
+      </c>
+      <c r="H3">
+        <v>0.1150507474276595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04640065686099687</v>
+        <v>0.03724932069137241</v>
       </c>
       <c r="C4">
-        <v>-0.01674433125206014</v>
+        <v>0.03532947804047591</v>
       </c>
       <c r="D4">
-        <v>-0.03941994557692016</v>
+        <v>0.05608838661972886</v>
       </c>
       <c r="E4">
-        <v>-0.03153584709847097</v>
+        <v>-0.01625017927070313</v>
       </c>
       <c r="F4">
-        <v>-0.06175449435946369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.03032546280343381</v>
+      </c>
+      <c r="G4">
+        <v>0.04309110912352668</v>
+      </c>
+      <c r="H4">
+        <v>0.05969858725844743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03380891593816834</v>
+        <v>0.02136736217609032</v>
       </c>
       <c r="C6">
-        <v>-0.0137072339368068</v>
+        <v>0.03803628117854342</v>
       </c>
       <c r="D6">
-        <v>-0.03931255155731487</v>
+        <v>0.0525762939458969</v>
       </c>
       <c r="E6">
-        <v>-0.02105373232704387</v>
+        <v>-0.005420004528689868</v>
       </c>
       <c r="F6">
-        <v>-0.01061853155006778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.02881444301328534</v>
+      </c>
+      <c r="G6">
+        <v>0.01555877015467406</v>
+      </c>
+      <c r="H6">
+        <v>0.06204129334421054</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03893501490231351</v>
+        <v>0.009565550044418392</v>
       </c>
       <c r="C7">
-        <v>0.02684515914714316</v>
+        <v>0.02024194259033464</v>
       </c>
       <c r="D7">
-        <v>-0.03664511300899909</v>
+        <v>0.03323998126296564</v>
       </c>
       <c r="E7">
-        <v>-0.01402257888542417</v>
+        <v>-0.04269660389891218</v>
       </c>
       <c r="F7">
-        <v>-0.03659193439925332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.005426226343874511</v>
+      </c>
+      <c r="G7">
+        <v>0.01889423603750233</v>
+      </c>
+      <c r="H7">
+        <v>0.03774547597844623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0172148773705868</v>
+        <v>0.001629170536490408</v>
       </c>
       <c r="C8">
-        <v>-0.001890407040920427</v>
+        <v>0.008565391022058498</v>
       </c>
       <c r="D8">
-        <v>-0.04728542718518692</v>
+        <v>0.009547587649346226</v>
       </c>
       <c r="E8">
-        <v>-0.02233290763041254</v>
+        <v>-0.009678494462658815</v>
       </c>
       <c r="F8">
-        <v>-0.06132717801496998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.003672502621289592</v>
+      </c>
+      <c r="G8">
+        <v>0.03784666462723353</v>
+      </c>
+      <c r="H8">
+        <v>0.03449680961344972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03441745630995711</v>
+        <v>0.02610588659167698</v>
       </c>
       <c r="C9">
-        <v>-0.01111837219524626</v>
+        <v>0.02778778778805698</v>
       </c>
       <c r="D9">
-        <v>-0.03439389573918306</v>
+        <v>0.04091328884128865</v>
       </c>
       <c r="E9">
-        <v>-0.01154565597651058</v>
+        <v>-0.006143599770016328</v>
       </c>
       <c r="F9">
-        <v>-0.07808182633228701</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.004291603094647432</v>
+      </c>
+      <c r="G9">
+        <v>0.0414863909772625</v>
+      </c>
+      <c r="H9">
+        <v>0.05485772720546434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04015376444357611</v>
+        <v>0.1323733393356961</v>
       </c>
       <c r="C10">
-        <v>-0.001229632654748955</v>
+        <v>-0.08726624142285926</v>
       </c>
       <c r="D10">
-        <v>0.1465602886857909</v>
+        <v>-0.119216982575011</v>
       </c>
       <c r="E10">
-        <v>0.04719248272735489</v>
+        <v>0.001379468509774447</v>
       </c>
       <c r="F10">
-        <v>-0.06255729006435568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.04476394307450382</v>
+      </c>
+      <c r="G10">
+        <v>0.02354929930478353</v>
+      </c>
+      <c r="H10">
+        <v>-0.008588237811236028</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03226938907709759</v>
+        <v>0.01722434345719563</v>
       </c>
       <c r="C11">
-        <v>-0.02362366649050805</v>
+        <v>0.03806392633725825</v>
       </c>
       <c r="D11">
-        <v>-0.03877147278349284</v>
+        <v>0.03388340722304622</v>
       </c>
       <c r="E11">
-        <v>-0.01568054251294864</v>
+        <v>0.001754576317821844</v>
       </c>
       <c r="F11">
-        <v>-0.02578951854263463</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.005953802187912799</v>
+      </c>
+      <c r="G11">
+        <v>0.01803590895209727</v>
+      </c>
+      <c r="H11">
+        <v>0.0517237833026466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04362167543603315</v>
+        <v>0.02123691045213916</v>
       </c>
       <c r="C12">
-        <v>-0.02280453318160414</v>
+        <v>0.03434013919019718</v>
       </c>
       <c r="D12">
-        <v>-0.03228577434328928</v>
+        <v>0.03532177037942618</v>
       </c>
       <c r="E12">
-        <v>-0.02487686249139646</v>
+        <v>-0.01112903089537724</v>
       </c>
       <c r="F12">
-        <v>-0.0003995832742146624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01099861543304224</v>
+      </c>
+      <c r="G12">
+        <v>0.004897597308117509</v>
+      </c>
+      <c r="H12">
+        <v>0.02087703283589212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01204390237020142</v>
+        <v>0.01890772526590985</v>
       </c>
       <c r="C13">
-        <v>-0.02156485974066956</v>
+        <v>0.004688930255879763</v>
       </c>
       <c r="D13">
-        <v>-0.01283996625514898</v>
+        <v>0.03107348107057731</v>
       </c>
       <c r="E13">
-        <v>-0.007512491926122552</v>
+        <v>0.01313646502401934</v>
       </c>
       <c r="F13">
-        <v>-0.07616143516025402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.004275559231044232</v>
+      </c>
+      <c r="G13">
+        <v>0.05488968751915808</v>
+      </c>
+      <c r="H13">
+        <v>0.0734517536732715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02407487977958113</v>
+        <v>0.01030976494416026</v>
       </c>
       <c r="C14">
-        <v>0.001604880674488995</v>
+        <v>0.01200533717462252</v>
       </c>
       <c r="D14">
-        <v>-0.02158411001976347</v>
+        <v>0.01891263370452996</v>
       </c>
       <c r="E14">
-        <v>-0.0148997245420605</v>
+        <v>-0.01375466357250586</v>
       </c>
       <c r="F14">
-        <v>-0.04720806122185817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.001333146199216235</v>
+      </c>
+      <c r="G14">
+        <v>0.03707809573155232</v>
+      </c>
+      <c r="H14">
+        <v>0.01104714547131361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03394637744313289</v>
+        <v>0.01886503306233393</v>
       </c>
       <c r="C16">
-        <v>-0.02360089098098388</v>
+        <v>0.03374459681819995</v>
       </c>
       <c r="D16">
-        <v>-0.04101945201073155</v>
+        <v>0.0289091206221475</v>
       </c>
       <c r="E16">
-        <v>-0.0185101775005331</v>
+        <v>-0.00254344192613545</v>
       </c>
       <c r="F16">
-        <v>-0.02668327171123497</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.00851259406913442</v>
+      </c>
+      <c r="G16">
+        <v>0.01777437505265988</v>
+      </c>
+      <c r="H16">
+        <v>0.03733150404932288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03570435609950284</v>
+        <v>0.01855619790986308</v>
       </c>
       <c r="C19">
-        <v>-0.01770775783252738</v>
+        <v>0.02625202666938182</v>
       </c>
       <c r="D19">
-        <v>-0.05115445516635329</v>
+        <v>0.03860776134060846</v>
       </c>
       <c r="E19">
-        <v>-0.03005591148078438</v>
+        <v>-0.01108005679511439</v>
       </c>
       <c r="F19">
-        <v>-0.07871980997375821</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.008312385223016694</v>
+      </c>
+      <c r="G19">
+        <v>0.05495071729924084</v>
+      </c>
+      <c r="H19">
+        <v>0.05511592433829728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.004155886529056879</v>
+        <v>0.005687011656627447</v>
       </c>
       <c r="C20">
-        <v>0.006822036989835184</v>
+        <v>0.009152426660682516</v>
       </c>
       <c r="D20">
-        <v>-0.007509089333975626</v>
+        <v>0.02208146544389543</v>
       </c>
       <c r="E20">
-        <v>-0.01102159706768654</v>
+        <v>-0.00436620567610959</v>
       </c>
       <c r="F20">
-        <v>-0.05323230115033745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.00199210163735491</v>
+      </c>
+      <c r="G20">
+        <v>0.04729551786787656</v>
+      </c>
+      <c r="H20">
+        <v>0.02786199143556926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01904095139974974</v>
+        <v>0.01231881987929853</v>
       </c>
       <c r="C21">
-        <v>0.01526907239654028</v>
+        <v>0.007860405077107403</v>
       </c>
       <c r="D21">
-        <v>-0.0366095748727414</v>
+        <v>0.02358679675494644</v>
       </c>
       <c r="E21">
-        <v>-0.0009206495264234879</v>
+        <v>-0.01669163516189174</v>
       </c>
       <c r="F21">
-        <v>-0.02754236906201301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01021542975791451</v>
+      </c>
+      <c r="G21">
+        <v>0.03770105894580402</v>
+      </c>
+      <c r="H21">
+        <v>0.05296263283772643</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03095852447771054</v>
+        <v>0.01417775672397919</v>
       </c>
       <c r="C24">
-        <v>-0.02134866956788316</v>
+        <v>0.02980886163228474</v>
       </c>
       <c r="D24">
-        <v>-0.02315338284564445</v>
+        <v>0.03271225196828755</v>
       </c>
       <c r="E24">
-        <v>-0.01613158887906978</v>
+        <v>-0.0005877073133245814</v>
       </c>
       <c r="F24">
-        <v>-0.03096767862194261</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.005797310674412216</v>
+      </c>
+      <c r="G24">
+        <v>0.0123556474325519</v>
+      </c>
+      <c r="H24">
+        <v>0.04615804846121847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03490034374643129</v>
+        <v>0.02777821357073383</v>
       </c>
       <c r="C25">
-        <v>-0.0198469472167063</v>
+        <v>0.03098888983646082</v>
       </c>
       <c r="D25">
-        <v>-0.03531744346226603</v>
+        <v>0.03771898760090844</v>
       </c>
       <c r="E25">
-        <v>-0.01233471393232782</v>
+        <v>-0.006510535227334612</v>
       </c>
       <c r="F25">
-        <v>-0.0326767641048861</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.01383061679799366</v>
+      </c>
+      <c r="G25">
+        <v>0.01569547902650643</v>
+      </c>
+      <c r="H25">
+        <v>0.04602137418420436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0175204412593365</v>
+        <v>0.0110208676987016</v>
       </c>
       <c r="C26">
-        <v>-0.01138615314070606</v>
+        <v>-0.008209238098617403</v>
       </c>
       <c r="D26">
-        <v>-0.02290629584772321</v>
+        <v>0.02171369341751898</v>
       </c>
       <c r="E26">
-        <v>0.005321302399172245</v>
+        <v>-0.0003239294845763908</v>
       </c>
       <c r="F26">
-        <v>-0.05072762611027333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.006330595444982618</v>
+      </c>
+      <c r="G26">
+        <v>0.02349015800201043</v>
+      </c>
+      <c r="H26">
+        <v>0.01942691979187717</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.04012584813572336</v>
+        <v>0.01479546742449643</v>
       </c>
       <c r="C27">
-        <v>-0.01942898082054999</v>
+        <v>0.01271064193823565</v>
       </c>
       <c r="D27">
-        <v>-0.005756765248286551</v>
+        <v>0.008207568182831745</v>
       </c>
       <c r="E27">
-        <v>-0.02600446765847538</v>
+        <v>-0.005806644915456682</v>
       </c>
       <c r="F27">
-        <v>-0.01349590951362618</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.002592382565355753</v>
+      </c>
+      <c r="G27">
+        <v>0.007579639755662605</v>
+      </c>
+      <c r="H27">
+        <v>-0.002500275434195233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07160760523042582</v>
+        <v>0.1846366456405449</v>
       </c>
       <c r="C28">
-        <v>-0.003795361794505757</v>
+        <v>-0.122974103790237</v>
       </c>
       <c r="D28">
-        <v>0.2128914103364662</v>
+        <v>-0.1478839725302113</v>
       </c>
       <c r="E28">
-        <v>0.07617890607051463</v>
+        <v>-0.011218862549871</v>
       </c>
       <c r="F28">
-        <v>-0.06026668760947831</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04107537004261377</v>
+      </c>
+      <c r="G28">
+        <v>0.01221640219221222</v>
+      </c>
+      <c r="H28">
+        <v>-0.01131134977345485</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02562015144483685</v>
+        <v>0.01630166914953976</v>
       </c>
       <c r="C29">
-        <v>0.0008642408254276546</v>
+        <v>0.01182754148519419</v>
       </c>
       <c r="D29">
-        <v>-0.02483094898000646</v>
+        <v>0.0168458452953494</v>
       </c>
       <c r="E29">
-        <v>-0.01624705658040468</v>
+        <v>-0.0131280637071516</v>
       </c>
       <c r="F29">
-        <v>-0.04408478733842056</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.001655359130699795</v>
+      </c>
+      <c r="G29">
+        <v>0.03656573173592179</v>
+      </c>
+      <c r="H29">
+        <v>0.007455127315001807</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.05339719325250106</v>
+        <v>0.03424667981671298</v>
       </c>
       <c r="C30">
-        <v>-0.07522104112634735</v>
+        <v>0.05397359537044185</v>
       </c>
       <c r="D30">
-        <v>-0.06176305394609908</v>
+        <v>0.07921212086279167</v>
       </c>
       <c r="E30">
-        <v>-0.03597153403056643</v>
+        <v>0.03184753735828105</v>
       </c>
       <c r="F30">
-        <v>-0.0838446616923685</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02695439413090681</v>
+      </c>
+      <c r="G30">
+        <v>0.05870212339035543</v>
+      </c>
+      <c r="H30">
+        <v>0.07356046357705608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05504879659589886</v>
+        <v>0.04452575519535953</v>
       </c>
       <c r="C31">
-        <v>-0.03708939798021234</v>
+        <v>0.02538731167701873</v>
       </c>
       <c r="D31">
-        <v>-0.02235063834240046</v>
+        <v>0.02090492604368354</v>
       </c>
       <c r="E31">
-        <v>-0.01701874558895208</v>
+        <v>0.001687442663448649</v>
       </c>
       <c r="F31">
-        <v>-0.02744593223753876</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.003622104335776194</v>
+      </c>
+      <c r="G31">
+        <v>0.01510334222087904</v>
+      </c>
+      <c r="H31">
+        <v>0.003924876474448531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02460916223393577</v>
+        <v>0.008413365579470363</v>
       </c>
       <c r="C32">
-        <v>0.01323187821558186</v>
+        <v>0.01863421220929466</v>
       </c>
       <c r="D32">
-        <v>-0.06062159423063782</v>
+        <v>0.003853982154274333</v>
       </c>
       <c r="E32">
-        <v>-0.03332432979925266</v>
+        <v>-0.03033150761084551</v>
       </c>
       <c r="F32">
-        <v>-0.04315662700251572</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.02598771814817187</v>
+      </c>
+      <c r="G32">
+        <v>0.04299139713418453</v>
+      </c>
+      <c r="H32">
+        <v>0.0500902150088188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03439242449342078</v>
+        <v>0.02125592967055848</v>
       </c>
       <c r="C33">
-        <v>-0.0440555597215643</v>
+        <v>0.02942617717371812</v>
       </c>
       <c r="D33">
-        <v>-0.05367246978393413</v>
+        <v>0.04136161206829161</v>
       </c>
       <c r="E33">
-        <v>0.001400955902134876</v>
+        <v>0.01983981568440045</v>
       </c>
       <c r="F33">
-        <v>-0.06041549467538091</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01317484913943179</v>
+      </c>
+      <c r="G33">
+        <v>0.03589144314094857</v>
+      </c>
+      <c r="H33">
+        <v>0.05147722474148531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0378627074376262</v>
+        <v>0.02594368630592635</v>
       </c>
       <c r="C34">
-        <v>-0.01624664780642205</v>
+        <v>0.04391897734999951</v>
       </c>
       <c r="D34">
-        <v>-0.04358250956418869</v>
+        <v>0.02766450118528698</v>
       </c>
       <c r="E34">
-        <v>-0.02649880740685244</v>
+        <v>-0.01363528117783019</v>
       </c>
       <c r="F34">
-        <v>-0.02621015763467095</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.01557354707329719</v>
+      </c>
+      <c r="G34">
+        <v>0.008134321968610166</v>
+      </c>
+      <c r="H34">
+        <v>0.03695517937398896</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01879670422387793</v>
+        <v>0.01566875808368339</v>
       </c>
       <c r="C36">
-        <v>-0.000620996943868296</v>
+        <v>-0.001080414834426704</v>
       </c>
       <c r="D36">
-        <v>-0.01553044110032603</v>
+        <v>0.01041131391572954</v>
       </c>
       <c r="E36">
-        <v>-0.008238843286598435</v>
+        <v>-0.007595080129373045</v>
       </c>
       <c r="F36">
-        <v>-0.02779070685870372</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.004417720621582325</v>
+      </c>
+      <c r="G36">
+        <v>0.01575570729980255</v>
+      </c>
+      <c r="H36">
+        <v>0.01693330719511556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.009222195828991924</v>
+        <v>0.0246232162376494</v>
       </c>
       <c r="C38">
-        <v>-0.005529335447975391</v>
+        <v>0.02135772090487112</v>
       </c>
       <c r="D38">
-        <v>-0.003721682407723358</v>
+        <v>0.004328384671853073</v>
       </c>
       <c r="E38">
-        <v>0.01765810687209306</v>
+        <v>-0.0004911942432125066</v>
       </c>
       <c r="F38">
-        <v>-0.04505550446514132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.00193621766341501</v>
+      </c>
+      <c r="G38">
+        <v>0.02216779229615417</v>
+      </c>
+      <c r="H38">
+        <v>0.03482935938697692</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03098804900610826</v>
+        <v>0.007768077315292214</v>
       </c>
       <c r="C39">
-        <v>-0.0226314651642324</v>
+        <v>0.05842816436105223</v>
       </c>
       <c r="D39">
-        <v>-0.060161197670507</v>
+        <v>0.06712831992435547</v>
       </c>
       <c r="E39">
-        <v>-0.01791310929834398</v>
+        <v>0.006331085467357096</v>
       </c>
       <c r="F39">
-        <v>-0.04570458305056019</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.008892509024948985</v>
+      </c>
+      <c r="G39">
+        <v>0.02862199112116641</v>
+      </c>
+      <c r="H39">
+        <v>0.08086995676939236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01987436721685684</v>
+        <v>0.02622443662783086</v>
       </c>
       <c r="C40">
-        <v>-0.04959658349477412</v>
+        <v>0.01971062631537953</v>
       </c>
       <c r="D40">
-        <v>-0.02537423364941673</v>
+        <v>0.02736137280623755</v>
       </c>
       <c r="E40">
-        <v>-0.02643118467779837</v>
+        <v>0.02369371797919573</v>
       </c>
       <c r="F40">
-        <v>-0.04095526335498791</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02633974210002007</v>
+      </c>
+      <c r="G40">
+        <v>0.01629778490815742</v>
+      </c>
+      <c r="H40">
+        <v>0.05825909759778009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.007081326261841059</v>
+        <v>0.01307176182266449</v>
       </c>
       <c r="C41">
-        <v>0.0005008453326503663</v>
+        <v>-0.007335929557160951</v>
       </c>
       <c r="D41">
-        <v>-0.006983870190976643</v>
+        <v>-0.005067504398272129</v>
       </c>
       <c r="E41">
-        <v>0.01231494864497191</v>
+        <v>-0.00405508331388607</v>
       </c>
       <c r="F41">
-        <v>-0.002088029782633703</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.006599045541469808</v>
+      </c>
+      <c r="G41">
+        <v>-0.00415283916806674</v>
+      </c>
+      <c r="H41">
+        <v>-0.003832623750209414</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2280140257308869</v>
+        <v>0.1080218821913309</v>
       </c>
       <c r="C42">
-        <v>-0.2103797746499848</v>
+        <v>0.07511228655975605</v>
       </c>
       <c r="D42">
-        <v>-0.1904036685402162</v>
+        <v>0.2369706754833825</v>
       </c>
       <c r="E42">
-        <v>0.8608464180239882</v>
+        <v>0.2254497025133984</v>
       </c>
       <c r="F42">
-        <v>0.2814202597355945</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.7952963608009719</v>
+      </c>
+      <c r="G42">
+        <v>-0.4715707414468762</v>
+      </c>
+      <c r="H42">
+        <v>0.02612689582514905</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.006131017530906098</v>
+        <v>0.01343482736128296</v>
       </c>
       <c r="C43">
-        <v>-0.003395196116149257</v>
+        <v>-0.007689013494533742</v>
       </c>
       <c r="D43">
-        <v>-0.01178482834198327</v>
+        <v>-0.004210223625032732</v>
       </c>
       <c r="E43">
-        <v>0.005951479701922136</v>
+        <v>-0.0001928381853931502</v>
       </c>
       <c r="F43">
-        <v>-0.02266804553214348</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.007878431586138296</v>
+      </c>
+      <c r="G43">
+        <v>-0.001376347739957403</v>
+      </c>
+      <c r="H43">
+        <v>0.00415274937894275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02554051233759179</v>
+        <v>0.01257101514730528</v>
       </c>
       <c r="C44">
-        <v>0.002791944292003192</v>
+        <v>0.02873931958584906</v>
       </c>
       <c r="D44">
-        <v>-0.03729116097604638</v>
+        <v>0.030893129284892</v>
       </c>
       <c r="E44">
-        <v>0.002126237655442745</v>
+        <v>-0.01370632095911195</v>
       </c>
       <c r="F44">
-        <v>-0.09151106932489429</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01479508672399244</v>
+      </c>
+      <c r="G44">
+        <v>0.03450316310019619</v>
+      </c>
+      <c r="H44">
+        <v>0.06102420390830587</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02051675138928571</v>
+        <v>0.005923074298091003</v>
       </c>
       <c r="C46">
-        <v>-0.01007698219510977</v>
+        <v>0.005145329980742175</v>
       </c>
       <c r="D46">
-        <v>-0.0588709398045618</v>
+        <v>0.01844004889211431</v>
       </c>
       <c r="E46">
-        <v>-0.01830114258577971</v>
+        <v>-0.001204827313586671</v>
       </c>
       <c r="F46">
-        <v>-0.05890874847918079</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.006882136085584589</v>
+      </c>
+      <c r="G46">
+        <v>0.03786653021366862</v>
+      </c>
+      <c r="H46">
+        <v>0.0109357730213337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08152536484619675</v>
+        <v>0.05996796097333308</v>
       </c>
       <c r="C47">
-        <v>-0.04888359424410346</v>
+        <v>0.05481172222325756</v>
       </c>
       <c r="D47">
-        <v>-0.013332337450307</v>
+        <v>0.03551637305816439</v>
       </c>
       <c r="E47">
-        <v>-0.02549605737838455</v>
+        <v>-0.006193863201001073</v>
       </c>
       <c r="F47">
-        <v>-0.003140643964722455</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.006830392579085375</v>
+      </c>
+      <c r="G47">
+        <v>-0.002585793955072851</v>
+      </c>
+      <c r="H47">
+        <v>-0.03184076959437034</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01904390847345435</v>
+        <v>0.01604163634223154</v>
       </c>
       <c r="C48">
-        <v>-0.01156829684871518</v>
+        <v>0.01228887228305306</v>
       </c>
       <c r="D48">
-        <v>-0.02289680499445892</v>
+        <v>0.01015934613338923</v>
       </c>
       <c r="E48">
-        <v>-0.007797682393771497</v>
+        <v>-0.0008327321537805044</v>
       </c>
       <c r="F48">
-        <v>-0.0328640805910147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.0008455126895439309</v>
+      </c>
+      <c r="G48">
+        <v>0.0169815556238723</v>
+      </c>
+      <c r="H48">
+        <v>0.01970782653038562</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08560542717771531</v>
+        <v>0.06348689416635125</v>
       </c>
       <c r="C50">
-        <v>-0.03246017139127436</v>
+        <v>0.05150960873265834</v>
       </c>
       <c r="D50">
-        <v>-0.03291935702460732</v>
+        <v>0.03445404006865723</v>
       </c>
       <c r="E50">
-        <v>-0.01808616536080341</v>
+        <v>-0.0174810693169616</v>
       </c>
       <c r="F50">
-        <v>-0.01469772046023647</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.0005194746361252663</v>
+      </c>
+      <c r="G50">
+        <v>0.005401404187890243</v>
+      </c>
+      <c r="H50">
+        <v>-0.01853947332679053</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02159150536131061</v>
+        <v>0.01524347379004421</v>
       </c>
       <c r="C51">
-        <v>-0.005135925878430357</v>
+        <v>0.005897621579045951</v>
       </c>
       <c r="D51">
-        <v>-0.0007540646682980642</v>
+        <v>0.01154480954507878</v>
       </c>
       <c r="E51">
-        <v>-0.002105973457780779</v>
+        <v>-0.008119711917799477</v>
       </c>
       <c r="F51">
-        <v>-0.08353791305688643</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.006450309859945604</v>
+      </c>
+      <c r="G51">
+        <v>0.03023621287086251</v>
+      </c>
+      <c r="H51">
+        <v>0.04475205263138941</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09090977926704694</v>
+        <v>0.07731843167245964</v>
       </c>
       <c r="C53">
-        <v>-0.0529511243893887</v>
+        <v>0.08164924858037152</v>
       </c>
       <c r="D53">
-        <v>-0.03792261955761364</v>
+        <v>0.0590120481846294</v>
       </c>
       <c r="E53">
-        <v>-0.03894130560553696</v>
+        <v>-0.0104482529458004</v>
       </c>
       <c r="F53">
-        <v>0.03755003855115809</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.02759418200462029</v>
+      </c>
+      <c r="G53">
+        <v>-0.02229584390379148</v>
+      </c>
+      <c r="H53">
+        <v>-0.0289704444898345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02692442437226178</v>
+        <v>0.02404085911038561</v>
       </c>
       <c r="C54">
-        <v>-0.003168566744215771</v>
+        <v>0.004229591948032583</v>
       </c>
       <c r="D54">
-        <v>-0.0006520930596724863</v>
+        <v>-0.005518586242066631</v>
       </c>
       <c r="E54">
-        <v>-0.009835803267344007</v>
+        <v>-0.005705213233744964</v>
       </c>
       <c r="F54">
-        <v>-0.02741670541405425</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01152709223413985</v>
+      </c>
+      <c r="G54">
+        <v>0.03574303189184771</v>
+      </c>
+      <c r="H54">
+        <v>-0.0003781217537366418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08870007619501522</v>
+        <v>0.05926049486136287</v>
       </c>
       <c r="C55">
-        <v>-0.04835167122843784</v>
+        <v>0.07393072008843161</v>
       </c>
       <c r="D55">
-        <v>-0.04348458920286</v>
+        <v>0.05510086123295367</v>
       </c>
       <c r="E55">
-        <v>-0.03194075055612587</v>
+        <v>-0.01001378694968357</v>
       </c>
       <c r="F55">
-        <v>0.04027654482050017</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.01442263009195117</v>
+      </c>
+      <c r="G55">
+        <v>-0.006977767067656799</v>
+      </c>
+      <c r="H55">
+        <v>-0.0384496484222939</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.127221927156357</v>
+        <v>0.1009327548758926</v>
       </c>
       <c r="C56">
-        <v>-0.07955273635607366</v>
+        <v>0.1082300563640884</v>
       </c>
       <c r="D56">
-        <v>-0.02515974845379649</v>
+        <v>0.07067480116870681</v>
       </c>
       <c r="E56">
-        <v>-0.08287150947856678</v>
+        <v>-0.01124839829017541</v>
       </c>
       <c r="F56">
-        <v>0.06582073310302221</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.05481258381516452</v>
+      </c>
+      <c r="G56">
+        <v>-0.04178003790179839</v>
+      </c>
+      <c r="H56">
+        <v>-0.06974617463042397</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04302372261530728</v>
+        <v>0.02838566799557032</v>
       </c>
       <c r="C57">
-        <v>-0.03419339579386358</v>
+        <v>0.01193789725464087</v>
       </c>
       <c r="D57">
-        <v>-0.02300829892429009</v>
+        <v>0.03968878384716086</v>
       </c>
       <c r="E57">
-        <v>0.01350192300245763</v>
+        <v>0.009494596586789751</v>
       </c>
       <c r="F57">
-        <v>-0.04817749476053074</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.01552512386430196</v>
+      </c>
+      <c r="G57">
+        <v>0.06199551869754436</v>
+      </c>
+      <c r="H57">
+        <v>0.05343339038635007</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1511132247446974</v>
+        <v>0.09763465276199335</v>
       </c>
       <c r="C58">
-        <v>-0.2089311779062656</v>
+        <v>0.1374234495078312</v>
       </c>
       <c r="D58">
-        <v>-0.2203600302434079</v>
+        <v>0.1265968004454987</v>
       </c>
       <c r="E58">
-        <v>0.002021392437898924</v>
+        <v>0.2835551387938292</v>
       </c>
       <c r="F58">
-        <v>-0.524914427554781</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.32462610559274</v>
+      </c>
+      <c r="G58">
+        <v>0.7752940921502973</v>
+      </c>
+      <c r="H58">
+        <v>-0.2902226274884883</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0535879068393516</v>
+        <v>0.2010246771019439</v>
       </c>
       <c r="C59">
-        <v>-0.02621021824674372</v>
+        <v>-0.110770854019452</v>
       </c>
       <c r="D59">
-        <v>0.182397190570731</v>
+        <v>-0.1478473390882556</v>
       </c>
       <c r="E59">
-        <v>0.03180331956484633</v>
+        <v>0.008597112104697482</v>
       </c>
       <c r="F59">
-        <v>-0.08888925225631798</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.004576847392153248</v>
+      </c>
+      <c r="G59">
+        <v>0.01587468555095797</v>
+      </c>
+      <c r="H59">
+        <v>0.02135524446635469</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1351703567145377</v>
+        <v>0.2125762151644884</v>
       </c>
       <c r="C60">
-        <v>-0.1154072108031166</v>
+        <v>0.04765201279364235</v>
       </c>
       <c r="D60">
-        <v>0.001810067457496515</v>
+        <v>0.02623094842833909</v>
       </c>
       <c r="E60">
-        <v>0.01382331065698224</v>
+        <v>0.05342624585101334</v>
       </c>
       <c r="F60">
-        <v>-0.1673280724773171</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.07904256867918376</v>
+      </c>
+      <c r="G60">
+        <v>0.02061599292159565</v>
+      </c>
+      <c r="H60">
+        <v>0.3792242474207475</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02312039084356147</v>
+        <v>0.01452054618199847</v>
       </c>
       <c r="C61">
-        <v>-0.01228253256060836</v>
+        <v>0.04330577138538071</v>
       </c>
       <c r="D61">
-        <v>-0.04512170064169962</v>
+        <v>0.04258393704423809</v>
       </c>
       <c r="E61">
-        <v>-0.009659907510263514</v>
+        <v>-0.003585164575704684</v>
       </c>
       <c r="F61">
-        <v>-0.01526877951520885</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.01343529292291297</v>
+      </c>
+      <c r="G61">
+        <v>0.02117637645496138</v>
+      </c>
+      <c r="H61">
+        <v>0.05691811314498521</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01423456972820447</v>
+        <v>0.007046945819452386</v>
       </c>
       <c r="C63">
-        <v>-0.003786632955977828</v>
+        <v>0.01189064283504742</v>
       </c>
       <c r="D63">
-        <v>-0.02254500289921077</v>
+        <v>0.02045633702436843</v>
       </c>
       <c r="E63">
-        <v>0.004326731299038709</v>
+        <v>-0.008513491636345896</v>
       </c>
       <c r="F63">
-        <v>-0.005777468585511536</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-6.861585570117448e-05</v>
+      </c>
+      <c r="G63">
+        <v>0.01264382727453404</v>
+      </c>
+      <c r="H63">
+        <v>0.01393976483348884</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03582377122788179</v>
+        <v>0.03632300432577187</v>
       </c>
       <c r="C64">
-        <v>-0.002695157597687492</v>
+        <v>0.03088619532605816</v>
       </c>
       <c r="D64">
-        <v>-0.03314699615253187</v>
+        <v>0.02895167385817137</v>
       </c>
       <c r="E64">
-        <v>-0.01752814888928543</v>
+        <v>-0.0159814400364909</v>
       </c>
       <c r="F64">
-        <v>-0.01702865872081667</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.005342227401170817</v>
+      </c>
+      <c r="G64">
+        <v>-0.01177969250769065</v>
+      </c>
+      <c r="H64">
+        <v>0.0482891468937521</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03762379328368843</v>
+        <v>0.04206222035905778</v>
       </c>
       <c r="C65">
-        <v>-0.01518181969492022</v>
+        <v>0.04935938166089526</v>
       </c>
       <c r="D65">
-        <v>-0.03982906035154309</v>
+        <v>0.06118042467135178</v>
       </c>
       <c r="E65">
-        <v>-0.02363026526227978</v>
+        <v>-0.008355344718102776</v>
       </c>
       <c r="F65">
-        <v>-0.003725426906228003</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.04672322580678524</v>
+      </c>
+      <c r="G65">
+        <v>0.0002808529511881741</v>
+      </c>
+      <c r="H65">
+        <v>0.07452400084962821</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03531439146249812</v>
+        <v>0.01594028331466905</v>
       </c>
       <c r="C66">
-        <v>-0.03305295733482536</v>
+        <v>0.07796259772267861</v>
       </c>
       <c r="D66">
-        <v>-0.06618313449320286</v>
+        <v>0.08140941510603956</v>
       </c>
       <c r="E66">
-        <v>-0.04104274765133011</v>
+        <v>0.007439076460312343</v>
       </c>
       <c r="F66">
-        <v>-0.03169004851574839</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.03188036504067147</v>
+      </c>
+      <c r="G66">
+        <v>0.03048032994944352</v>
+      </c>
+      <c r="H66">
+        <v>0.08587689884689381</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01998309316668096</v>
+        <v>0.04638720840772106</v>
       </c>
       <c r="C67">
-        <v>-0.01617879894605958</v>
+        <v>0.02635637139570033</v>
       </c>
       <c r="D67">
-        <v>0.007179314694603679</v>
+        <v>0.008327002934401523</v>
       </c>
       <c r="E67">
-        <v>0.007582863604176427</v>
+        <v>0.001296878426153546</v>
       </c>
       <c r="F67">
-        <v>-0.02783511434775767</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01500062039348737</v>
+      </c>
+      <c r="G67">
+        <v>0.01550921382242692</v>
+      </c>
+      <c r="H67">
+        <v>0.03290150985491547</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06676688729959021</v>
+        <v>0.1984096886387796</v>
       </c>
       <c r="C68">
-        <v>-0.02176028932574776</v>
+        <v>-0.1467813657343824</v>
       </c>
       <c r="D68">
-        <v>0.2095919918038295</v>
+        <v>-0.1546587949718877</v>
       </c>
       <c r="E68">
-        <v>0.04560076911642048</v>
+        <v>0.009301098408006516</v>
       </c>
       <c r="F68">
-        <v>-0.08063922131055828</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.050963917815904</v>
+      </c>
+      <c r="G68">
+        <v>0.02234059502545242</v>
+      </c>
+      <c r="H68">
+        <v>-0.04519191888816518</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05935709261118977</v>
+        <v>0.0576696155037218</v>
       </c>
       <c r="C69">
-        <v>-0.03831871565021801</v>
+        <v>0.05210051858586363</v>
       </c>
       <c r="D69">
-        <v>-0.01688960557925403</v>
+        <v>0.02738937515109539</v>
       </c>
       <c r="E69">
-        <v>-0.03536006629477941</v>
+        <v>-0.005426557190632651</v>
       </c>
       <c r="F69">
-        <v>-0.006150491548900071</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.02672432310961955</v>
+      </c>
+      <c r="G69">
+        <v>-0.004925238592200329</v>
+      </c>
+      <c r="H69">
+        <v>0.007173031022867839</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07556470490494917</v>
+        <v>0.1789780531715005</v>
       </c>
       <c r="C71">
-        <v>-0.0316043208796545</v>
+        <v>-0.1112887588434974</v>
       </c>
       <c r="D71">
-        <v>0.2130962272490873</v>
+        <v>-0.1283241799276112</v>
       </c>
       <c r="E71">
-        <v>0.0807957490186301</v>
+        <v>0.01336031124600127</v>
       </c>
       <c r="F71">
-        <v>-0.0844421028982458</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.06201756031905217</v>
+      </c>
+      <c r="G71">
+        <v>0.02462962556219731</v>
+      </c>
+      <c r="H71">
+        <v>-0.02471154525986632</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1007485331220673</v>
+        <v>0.06286683021835766</v>
       </c>
       <c r="C72">
-        <v>-0.08065364892200907</v>
+        <v>0.0899157251206382</v>
       </c>
       <c r="D72">
-        <v>-0.07281818239005175</v>
+        <v>0.0604778977528467</v>
       </c>
       <c r="E72">
-        <v>-0.09052226889355028</v>
+        <v>0.0146923929426788</v>
       </c>
       <c r="F72">
-        <v>-0.06721311700583331</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.06949460607580334</v>
+      </c>
+      <c r="G72">
+        <v>0.03522699773013774</v>
+      </c>
+      <c r="H72">
+        <v>0.1023322697645028</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1724896874374814</v>
+        <v>0.2819954220929407</v>
       </c>
       <c r="C73">
-        <v>-0.1840643344075052</v>
+        <v>0.09873445452128962</v>
       </c>
       <c r="D73">
-        <v>0.02150650361040413</v>
+        <v>0.07519989861691175</v>
       </c>
       <c r="E73">
-        <v>0.0588015921764705</v>
+        <v>0.09538242837078668</v>
       </c>
       <c r="F73">
-        <v>-0.2074986837419046</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.09001014554703894</v>
+      </c>
+      <c r="G73">
+        <v>0.02522481740608777</v>
+      </c>
+      <c r="H73">
+        <v>0.4871453178303329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1178494968754586</v>
+        <v>0.09919456642370933</v>
       </c>
       <c r="C74">
-        <v>-0.07211508896528182</v>
+        <v>0.111463362557251</v>
       </c>
       <c r="D74">
-        <v>-0.02457416084695742</v>
+        <v>0.07470816349388133</v>
       </c>
       <c r="E74">
-        <v>-0.04491461121458437</v>
+        <v>-0.01219808596230537</v>
       </c>
       <c r="F74">
-        <v>0.07804819788983861</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.0389742762714655</v>
+      </c>
+      <c r="G74">
+        <v>-0.03076846355269421</v>
+      </c>
+      <c r="H74">
+        <v>-0.03954594547731228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2035380400946322</v>
+        <v>0.2041844078708004</v>
       </c>
       <c r="C75">
-        <v>-0.1411682817776802</v>
+        <v>0.1884768915000841</v>
       </c>
       <c r="D75">
-        <v>-0.01953912720363614</v>
+        <v>0.1119431254721343</v>
       </c>
       <c r="E75">
-        <v>-0.1489567268321623</v>
+        <v>-0.009905628212092701</v>
       </c>
       <c r="F75">
-        <v>0.1217553954155656</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1052217524140564</v>
+      </c>
+      <c r="G75">
+        <v>-0.0746069048667385</v>
+      </c>
+      <c r="H75">
+        <v>-0.1517871650285042</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.25147742133348</v>
+        <v>0.1608651083100666</v>
       </c>
       <c r="C76">
-        <v>-0.1268594333569665</v>
+        <v>0.1727181107159353</v>
       </c>
       <c r="D76">
-        <v>-0.02391167186716688</v>
+        <v>0.1051148348025918</v>
       </c>
       <c r="E76">
-        <v>-0.1809801946773206</v>
+        <v>-0.04810555213584889</v>
       </c>
       <c r="F76">
-        <v>0.1996801948110853</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.09266093960112151</v>
+      </c>
+      <c r="G76">
+        <v>-0.06373147681123045</v>
+      </c>
+      <c r="H76">
+        <v>-0.1300188689924595</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0916916343089548</v>
+        <v>0.0504982114531566</v>
       </c>
       <c r="C77">
-        <v>-0.06889506851074205</v>
+        <v>0.05961474411477202</v>
       </c>
       <c r="D77">
-        <v>-0.09902493495435896</v>
+        <v>0.06763717693398739</v>
       </c>
       <c r="E77">
-        <v>0.06190298043896621</v>
+        <v>0.01874883684149719</v>
       </c>
       <c r="F77">
-        <v>-0.1307397116427092</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.04334517385968602</v>
+      </c>
+      <c r="G77">
+        <v>0.06128707544498382</v>
+      </c>
+      <c r="H77">
+        <v>0.01913455199198494</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06247978782282101</v>
+        <v>0.02807910240804712</v>
       </c>
       <c r="C78">
-        <v>-0.0321224230173398</v>
+        <v>0.05598880033529784</v>
       </c>
       <c r="D78">
-        <v>-0.1196274922014011</v>
+        <v>0.05533358254823871</v>
       </c>
       <c r="E78">
-        <v>-0.0291183287546757</v>
+        <v>-0.005577029591736575</v>
       </c>
       <c r="F78">
-        <v>-0.0761920278788726</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.006040647575598614</v>
+      </c>
+      <c r="G78">
+        <v>0.05409544444480913</v>
+      </c>
+      <c r="H78">
+        <v>0.09385359557196432</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.5757908026327654</v>
+        <v>0.1089984321027241</v>
       </c>
       <c r="C80">
-        <v>0.7968680954034241</v>
+        <v>0.0766960223905821</v>
       </c>
       <c r="D80">
-        <v>-0.07676810782225979</v>
+        <v>0.0655871703997921</v>
       </c>
       <c r="E80">
-        <v>0.04624296246836408</v>
+        <v>-0.9111228272301642</v>
       </c>
       <c r="F80">
-        <v>-0.04182520577942093</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.3023472868235194</v>
+      </c>
+      <c r="G80">
+        <v>0.1419337710389956</v>
+      </c>
+      <c r="H80">
+        <v>0.029573769307453</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1611840325994232</v>
+        <v>0.1340137215407129</v>
       </c>
       <c r="C81">
-        <v>-0.09606718045900178</v>
+        <v>0.1178970387845673</v>
       </c>
       <c r="D81">
-        <v>-0.007153651448361117</v>
+        <v>0.07017184320007715</v>
       </c>
       <c r="E81">
-        <v>-0.1154772354337626</v>
+        <v>-0.01733147052857724</v>
       </c>
       <c r="F81">
-        <v>0.1106942306003609</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.06006465415683841</v>
+      </c>
+      <c r="G81">
+        <v>-0.04425465417500268</v>
+      </c>
+      <c r="H81">
+        <v>-0.0826170746430353</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03306690654954238</v>
+        <v>0.02739682587315351</v>
       </c>
       <c r="C83">
-        <v>-0.02787483963368037</v>
+        <v>0.01851695722572392</v>
       </c>
       <c r="D83">
-        <v>-0.0304614044233721</v>
+        <v>0.01968401178470869</v>
       </c>
       <c r="E83">
-        <v>0.01466811329780898</v>
+        <v>0.007075720830806193</v>
       </c>
       <c r="F83">
-        <v>-0.05419812345215476</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01094163144416499</v>
+      </c>
+      <c r="G83">
+        <v>0.03704080013411289</v>
+      </c>
+      <c r="H83">
+        <v>0.04250964794808985</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2256397046623045</v>
+        <v>0.1926401727308857</v>
       </c>
       <c r="C85">
-        <v>-0.1413613211783859</v>
+        <v>0.1794255490984014</v>
       </c>
       <c r="D85">
-        <v>-0.02455480832537777</v>
+        <v>0.1230969715753289</v>
       </c>
       <c r="E85">
-        <v>-0.1400403949508078</v>
+        <v>-0.008981205002393805</v>
       </c>
       <c r="F85">
-        <v>0.1533683409577911</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1043896106202914</v>
+      </c>
+      <c r="G85">
+        <v>-0.1019239785692736</v>
+      </c>
+      <c r="H85">
+        <v>-0.07792817252686679</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01028456079299096</v>
+        <v>0.01474693627423555</v>
       </c>
       <c r="C86">
-        <v>0.001208828073813001</v>
+        <v>0.02430740614425012</v>
       </c>
       <c r="D86">
-        <v>-0.08024645984502438</v>
+        <v>0.0308827911122268</v>
       </c>
       <c r="E86">
-        <v>0.001687453041601531</v>
+        <v>-0.00696889431494675</v>
       </c>
       <c r="F86">
-        <v>-0.04797866405025236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.02209641711760988</v>
+      </c>
+      <c r="G86">
+        <v>0.03329411231221047</v>
+      </c>
+      <c r="H86">
+        <v>0.08138983001008626</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03413021066639445</v>
+        <v>0.01342796301868286</v>
       </c>
       <c r="C87">
-        <v>-0.01917180809899264</v>
+        <v>0.02723043206967385</v>
       </c>
       <c r="D87">
-        <v>-0.04335494273954545</v>
+        <v>0.03514843121163189</v>
       </c>
       <c r="E87">
-        <v>-0.00124421720625702</v>
+        <v>0.001304408888885011</v>
       </c>
       <c r="F87">
-        <v>-0.1054580693596017</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.01526434847974491</v>
+      </c>
+      <c r="G87">
+        <v>0.06924668466019748</v>
+      </c>
+      <c r="H87">
+        <v>0.08212123974762739</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.02113551184503281</v>
+        <v>0.0412618853872802</v>
       </c>
       <c r="C88">
-        <v>0.002994058111844936</v>
+        <v>0.00336724492459655</v>
       </c>
       <c r="D88">
-        <v>0.003758618104728792</v>
+        <v>0.02564535470071937</v>
       </c>
       <c r="E88">
-        <v>-0.01774969387719579</v>
+        <v>-0.02193107138767603</v>
       </c>
       <c r="F88">
-        <v>0.01747776605963291</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.0163187568649487</v>
+      </c>
+      <c r="G88">
+        <v>-0.003226870849670898</v>
+      </c>
+      <c r="H88">
+        <v>0.008235946443339455</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1012364003713503</v>
+        <v>0.3079440643098161</v>
       </c>
       <c r="C89">
-        <v>-0.0478073040319151</v>
+        <v>-0.1975909995220119</v>
       </c>
       <c r="D89">
-        <v>0.3320759193914435</v>
+        <v>-0.2260409811695268</v>
       </c>
       <c r="E89">
-        <v>0.05789286499667875</v>
+        <v>0.01182532061887527</v>
       </c>
       <c r="F89">
-        <v>-0.111094244453721</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01619695638733019</v>
+      </c>
+      <c r="G89">
+        <v>-0.01967249075222146</v>
+      </c>
+      <c r="H89">
+        <v>-0.004435056659152729</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08531056097523618</v>
+        <v>0.2547739504595861</v>
       </c>
       <c r="C90">
-        <v>-0.01428366162971166</v>
+        <v>-0.1845747934369745</v>
       </c>
       <c r="D90">
-        <v>0.3582663000059603</v>
+        <v>-0.2104000185207441</v>
       </c>
       <c r="E90">
-        <v>0.07229360451666386</v>
+        <v>0.003116918517986839</v>
       </c>
       <c r="F90">
-        <v>-0.06258630266206756</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.05593174628130346</v>
+      </c>
+      <c r="G90">
+        <v>-0.00501674437592332</v>
+      </c>
+      <c r="H90">
+        <v>-0.05801018515820799</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2552818507444487</v>
+        <v>0.2033916390500737</v>
       </c>
       <c r="C91">
-        <v>-0.1807218300291632</v>
+        <v>0.1760303118711866</v>
       </c>
       <c r="D91">
-        <v>-0.01715376446934053</v>
+        <v>0.1026336205578382</v>
       </c>
       <c r="E91">
-        <v>-0.1185044816570331</v>
+        <v>0.001880040973430977</v>
       </c>
       <c r="F91">
-        <v>0.2422849621736526</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.09056897390776281</v>
+      </c>
+      <c r="G91">
+        <v>-0.09655319195380119</v>
+      </c>
+      <c r="H91">
+        <v>-0.1674019907308772</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1560749413329272</v>
+        <v>0.2761281611315565</v>
       </c>
       <c r="C92">
-        <v>-0.06778663197799231</v>
+        <v>-0.08294532615272113</v>
       </c>
       <c r="D92">
-        <v>0.4318736518481251</v>
+        <v>-0.1777862415821754</v>
       </c>
       <c r="E92">
-        <v>-0.08186874789401256</v>
+        <v>-0.00650950557744144</v>
       </c>
       <c r="F92">
-        <v>0.04614115223928775</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.006589555634920408</v>
+      </c>
+      <c r="G92">
+        <v>0.03826624469276361</v>
+      </c>
+      <c r="H92">
+        <v>-0.1615142146009142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08696338492273338</v>
+        <v>0.2855299082351467</v>
       </c>
       <c r="C93">
-        <v>-0.05569797942545611</v>
+        <v>-0.1770238052731983</v>
       </c>
       <c r="D93">
-        <v>0.4299275075291445</v>
+        <v>-0.216872977764941</v>
       </c>
       <c r="E93">
-        <v>0.1103466299653789</v>
+        <v>0.03382271017766957</v>
       </c>
       <c r="F93">
-        <v>-0.06821284919432442</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.05299292314308772</v>
+      </c>
+      <c r="G93">
+        <v>-0.01781197934834647</v>
+      </c>
+      <c r="H93">
+        <v>-0.00322275067617058</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2483551060245225</v>
+        <v>0.248030089929855</v>
       </c>
       <c r="C94">
-        <v>-0.1855733286600698</v>
+        <v>0.1915742027366592</v>
       </c>
       <c r="D94">
-        <v>-0.01348318642610681</v>
+        <v>0.1278581052525479</v>
       </c>
       <c r="E94">
-        <v>-0.228571370913194</v>
+        <v>0.005379082220624492</v>
       </c>
       <c r="F94">
-        <v>0.1904955592197776</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2282524472001273</v>
+      </c>
+      <c r="G94">
+        <v>-0.1559657449646614</v>
+      </c>
+      <c r="H94">
+        <v>-0.3937260742208535</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01639965613294646</v>
+        <v>0.03410998958183882</v>
       </c>
       <c r="C95">
-        <v>-0.08789949955226196</v>
+        <v>0.08001346978950825</v>
       </c>
       <c r="D95">
-        <v>-0.05800289849968535</v>
+        <v>0.05968393099225549</v>
       </c>
       <c r="E95">
-        <v>-0.01054744572320427</v>
+        <v>0.08180469960205297</v>
       </c>
       <c r="F95">
-        <v>-0.0101438011595146</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.01822700816857227</v>
+      </c>
+      <c r="G95">
+        <v>0.03760664738089288</v>
+      </c>
+      <c r="H95">
+        <v>0.0415586533138775</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1409052642706703</v>
+        <v>0.1861765540859055</v>
       </c>
       <c r="C98">
-        <v>-0.121324338566794</v>
+        <v>0.06993847099114414</v>
       </c>
       <c r="D98">
-        <v>0.016523607720815</v>
+        <v>0.01477003333054609</v>
       </c>
       <c r="E98">
-        <v>0.04776557187460823</v>
+        <v>0.06579043199058957</v>
       </c>
       <c r="F98">
-        <v>-0.1741099948862387</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.007170400255138942</v>
+      </c>
+      <c r="G98">
+        <v>0.06284815188618034</v>
+      </c>
+      <c r="H98">
+        <v>0.3299226474244599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01213930642239491</v>
+        <v>0.01026682995860141</v>
       </c>
       <c r="C101">
-        <v>0.0006456168071046562</v>
+        <v>0.01160188803713088</v>
       </c>
       <c r="D101">
-        <v>-0.0660321341480095</v>
+        <v>0.01795232202317978</v>
       </c>
       <c r="E101">
-        <v>-0.02458741599801491</v>
+        <v>0.0008535309411583047</v>
       </c>
       <c r="F101">
-        <v>-0.1645655607503446</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.01621608847436831</v>
+      </c>
+      <c r="G101">
+        <v>0.09416832287576569</v>
+      </c>
+      <c r="H101">
+        <v>-0.007518800152672877</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1018413524628376</v>
+        <v>0.09703572782027932</v>
       </c>
       <c r="C102">
-        <v>-0.060560685565565</v>
+        <v>0.07979295620611072</v>
       </c>
       <c r="D102">
-        <v>-0.01450865627371857</v>
+        <v>0.0618682878172316</v>
       </c>
       <c r="E102">
-        <v>-0.07180884249786042</v>
+        <v>-0.008431340550556162</v>
       </c>
       <c r="F102">
-        <v>0.09345247284992357</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.05714516749131567</v>
+      </c>
+      <c r="G102">
+        <v>-0.04695874796552837</v>
+      </c>
+      <c r="H102">
+        <v>-0.06069370705366726</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04486327882313517</v>
+        <v>0.01275369692130855</v>
       </c>
       <c r="C103">
-        <v>-0.01259267574639121</v>
+        <v>0.01493029995385819</v>
       </c>
       <c r="D103">
-        <v>-0.02285582040278411</v>
+        <v>0.01163066043282703</v>
       </c>
       <c r="E103">
-        <v>-0.03503046504261494</v>
+        <v>-0.01326870525332596</v>
       </c>
       <c r="F103">
-        <v>0.01093630103600081</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.001991643615167152</v>
+      </c>
+      <c r="G103">
+        <v>0.005810480359772142</v>
+      </c>
+      <c r="H103">
+        <v>-0.01478670741979331</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1205347999198601</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.693208617473288</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.6901463852596131</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02937709806562914</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1223265981275913</v>
+      </c>
+      <c r="G104">
+        <v>0.03279692361069388</v>
+      </c>
+      <c r="H104">
+        <v>-0.05201476341838447</v>
       </c>
     </row>
   </sheetData>
